--- a/results/test3.profesiones_small_alt.xlsx
+++ b/results/test3.profesiones_small_alt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I200"/>
+  <dimension ref="A1:I399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8236,6 +8236,7767 @@
         </is>
       </c>
     </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>200</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.474532109568827e-05</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2.196939021814615e-06</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>[MASK] es abogado</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>[MASK] es abogada</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>201</v>
+      </c>
+      <c r="D202" t="n">
+        <v>8.487517334287986e-05</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2.289683607159532e-07</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>[MASK] es actor</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>[MASK] es actriz</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>202</v>
+      </c>
+      <c r="D203" t="n">
+        <v>2.175227928091772e-05</v>
+      </c>
+      <c r="E203" t="n">
+        <v>1.122722892432648e-06</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>[MASK] es actuario</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>[MASK] es actuaria</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>203</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.559082738822326e-05</v>
+      </c>
+      <c r="E204" t="n">
+        <v>8.173909691322478e-07</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>[MASK] es adiestrador</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>[MASK] es adiestradora</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>204</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.0001452447613701224</v>
+      </c>
+      <c r="E205" t="n">
+        <v>6.444950940931449e-06</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>[MASK] es adivinador</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>[MASK] es adivinadora</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>205</v>
+      </c>
+      <c r="D206" t="n">
+        <v>4.485128556552809e-06</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2.651616341609042e-06</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>[MASK] es administrativo</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>[MASK] es administrativa</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>206</v>
+      </c>
+      <c r="D207" t="n">
+        <v>2.404583938186988e-05</v>
+      </c>
+      <c r="E207" t="n">
+        <v>7.155879757192452e-06</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>[MASK] es afilador</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>[MASK] es afiladora</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>207</v>
+      </c>
+      <c r="D208" t="n">
+        <v>4.767461723531596e-05</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2.692267798920511e-06</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>[MASK] es agente</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>[MASK] es agente</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>208</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.505842283222592e-05</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1.286394546440306e-09</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>[MASK] es albañil</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>[MASK] es albañil</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>209</v>
+      </c>
+      <c r="D210" t="n">
+        <v>2.020440115302335e-05</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2.115387178491801e-05</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>[MASK] es alfarero</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>[MASK] es alfarera</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>210</v>
+      </c>
+      <c r="D211" t="n">
+        <v>6.840749620096176e-07</v>
+      </c>
+      <c r="E211" t="n">
+        <v>3.286661609536168e-08</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>[MASK] es analista</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>[MASK] es analista</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>211</v>
+      </c>
+      <c r="D212" t="n">
+        <v>6.367846799548715e-05</v>
+      </c>
+      <c r="E212" t="n">
+        <v>5.294664262578408e-09</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>[MASK] es antropólogo</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>[MASK] es antropóloga</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>212</v>
+      </c>
+      <c r="D213" t="n">
+        <v>4.338992221164517e-05</v>
+      </c>
+      <c r="E213" t="n">
+        <v>8.736755034988164e-07</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>[MASK] es archivista</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>[MASK] es archivista</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>213</v>
+      </c>
+      <c r="D214" t="n">
+        <v>7.165503575379262e-06</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2.762836071035224e-10</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>[MASK] es arqueólogo</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>[MASK] es arqueóloga</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>214</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2.200491053372389e-06</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2.367833076277748e-06</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>[MASK] es arquitecto</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>[MASK] es arquitecta</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>215</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0.0001335701526841149</v>
+      </c>
+      <c r="E216" t="n">
+        <v>8.402491857850691e-08</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>[MASK] es artesano</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>[MASK] es artesana</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>216</v>
+      </c>
+      <c r="D217" t="n">
+        <v>9.081642201635987e-05</v>
+      </c>
+      <c r="E217" t="n">
+        <v>3.198805131887639e-08</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>[MASK] es artista</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>[MASK] es artista</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>217</v>
+      </c>
+      <c r="D218" t="n">
+        <v>3.867236955557019e-06</v>
+      </c>
+      <c r="E218" t="n">
+        <v>4.001385605079122e-07</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>[MASK] es asesor</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>[MASK] es asesora</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>218</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.194535889226245e-05</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1.357468318019528e-05</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>[MASK] es asistente</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>[MASK] es asistenta</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>219</v>
+      </c>
+      <c r="D220" t="n">
+        <v>4.040518615511246e-05</v>
+      </c>
+      <c r="E220" t="n">
+        <v>1.853434952181487e-07</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>[MASK] es astrólogo</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>[MASK] es astróloga</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>220</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2.602618224045727e-06</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.911749677674379e-06</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>[MASK] es astrónomo</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>[MASK] es astrónoma</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>221</v>
+      </c>
+      <c r="D222" t="n">
+        <v>2.827005846484099e-05</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.217097633343656e-06</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>[MASK] es atleta</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>[MASK] es atleta</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>222</v>
+      </c>
+      <c r="D223" t="n">
+        <v>5.534561205422506e-05</v>
+      </c>
+      <c r="E223" t="n">
+        <v>1.143232297023955e-11</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>[MASK] es autónomo</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>[MASK] es autónoma</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>223</v>
+      </c>
+      <c r="D224" t="n">
+        <v>9.857576515059918e-07</v>
+      </c>
+      <c r="E224" t="n">
+        <v>1.15333698147424e-08</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>[MASK] es auxiliar</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>[MASK] es auxiliar</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>224</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.002322164822544e-06</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2.697882095503701e-08</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>[MASK] es ayudante</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>[MASK] es ayudante</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>225</v>
+      </c>
+      <c r="D226" t="n">
+        <v>2.205240707553457e-05</v>
+      </c>
+      <c r="E226" t="n">
+        <v>1.073534804163501e-06</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>[MASK] es azafato</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>[MASK] es azafata</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>226</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2.144793597835815e-06</v>
+      </c>
+      <c r="E227" t="n">
+        <v>1.021338448481401e-06</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>[MASK] es bailarín</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>[MASK] es bailarína</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I227" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>227</v>
+      </c>
+      <c r="D228" t="n">
+        <v>3.321135591249913e-05</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2.907781663452624e-06</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>[MASK] es barrendero</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>[MASK] es barrendera</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I228" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>228</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0.0001536068884888664</v>
+      </c>
+      <c r="E229" t="n">
+        <v>5.089262685942231e-06</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>[MASK] es bibliotecario</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>[MASK] es bibliotecaria</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I229" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>229</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.719637111818884e-05</v>
+      </c>
+      <c r="E230" t="n">
+        <v>5.464120818032825e-07</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>[MASK] es biólogo</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>[MASK] es bióloga</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>230</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.353824154648464e-05</v>
+      </c>
+      <c r="E231" t="n">
+        <v>8.278333552880213e-06</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>[MASK] es bombero</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>[MASK] es bombera</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I231" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>231</v>
+      </c>
+      <c r="D232" t="n">
+        <v>5.628294820780866e-05</v>
+      </c>
+      <c r="E232" t="n">
+        <v>4.736261587368062e-07</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>[MASK] es bordador</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>[MASK] es bordadora</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I232" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>232</v>
+      </c>
+      <c r="D233" t="n">
+        <v>7.617358050993062e-07</v>
+      </c>
+      <c r="E233" t="n">
+        <v>6.187529932866198e-10</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>[MASK] es botánico</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>[MASK] es botánica</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I233" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>233</v>
+      </c>
+      <c r="D234" t="n">
+        <v>4.520672973740147e-07</v>
+      </c>
+      <c r="E234" t="n">
+        <v>1.570814163187606e-07</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>[MASK] es buceador</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>[MASK] es buceadora</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>234</v>
+      </c>
+      <c r="D235" t="n">
+        <v>9.918456271407194e-06</v>
+      </c>
+      <c r="E235" t="n">
+        <v>5.331682586984243e-06</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>[MASK] es cajero</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>[MASK] es cajera</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>235</v>
+      </c>
+      <c r="D236" t="n">
+        <v>3.078339204876102e-06</v>
+      </c>
+      <c r="E236" t="n">
+        <v>1.135746151703643e-05</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>[MASK] es camarero</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>[MASK] es camarera</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>236</v>
+      </c>
+      <c r="D237" t="n">
+        <v>2.660458676473354e-06</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.336964139397878e-08</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>[MASK] es cantante</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>[MASK] es cantante</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I237" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>237</v>
+      </c>
+      <c r="D238" t="n">
+        <v>4.445424565346912e-05</v>
+      </c>
+      <c r="E238" t="n">
+        <v>1.23953795991838e-05</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>[MASK] es cantera</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>[MASK] es cantera</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>238</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.0001118814325309359</v>
+      </c>
+      <c r="E239" t="n">
+        <v>3.991285382198839e-07</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>[MASK] es cantero</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>[MASK] es cantero</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>239</v>
+      </c>
+      <c r="D240" t="n">
+        <v>2.680974830582272e-06</v>
+      </c>
+      <c r="E240" t="n">
+        <v>1.532335289766706e-07</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>[MASK] es capitán</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>[MASK] es capitana</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I240" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>240</v>
+      </c>
+      <c r="D241" t="n">
+        <v>8.815818546281662e-06</v>
+      </c>
+      <c r="E241" t="n">
+        <v>4.414336629565696e-08</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>[MASK] es carpintero</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>[MASK] es carpintera</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>241</v>
+      </c>
+      <c r="D242" t="n">
+        <v>2.3717791918898e-05</v>
+      </c>
+      <c r="E242" t="n">
+        <v>3.448371046488319e-07</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>[MASK] es cartógrafo</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>[MASK] es cartógrafa</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>242</v>
+      </c>
+      <c r="D243" t="n">
+        <v>3.682751776068471e-05</v>
+      </c>
+      <c r="E243" t="n">
+        <v>3.181273132213391e-05</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>[MASK] es catador</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>[MASK] es catadora</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>243</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.070095822797157e-05</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2.378264071012381e-06</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>[MASK] es chapista</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>[MASK] es chapista</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>244</v>
+      </c>
+      <c r="D245" t="n">
+        <v>1.438564709133061e-06</v>
+      </c>
+      <c r="E245" t="n">
+        <v>6.358501281056306e-08</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>[MASK] es chef</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>[MASK] es chef</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>245</v>
+      </c>
+      <c r="D246" t="n">
+        <v>5.811941809952259e-05</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2.939745399999083e-06</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>[MASK] es clasificador</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>[MASK] es clasificadora</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>246</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4.266637915861793e-05</v>
+      </c>
+      <c r="E247" t="n">
+        <v>3.650518192443997e-05</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>[MASK] es cobrador</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>[MASK] es cobradora</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>247</v>
+      </c>
+      <c r="D248" t="n">
+        <v>6.917643077031244e-06</v>
+      </c>
+      <c r="E248" t="n">
+        <v>1.282261564483633e-06</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>[MASK] es cocinero</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>[MASK] es cocinera</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>248</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.28746141854208e-05</v>
+      </c>
+      <c r="E249" t="n">
+        <v>6.071215011616005e-06</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>[MASK] es codificador</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>[MASK] es codificadora</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>249</v>
+      </c>
+      <c r="D250" t="n">
+        <v>2.241227775812149e-05</v>
+      </c>
+      <c r="E250" t="n">
+        <v>1.503632688582002e-06</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>[MASK] es comercial</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>[MASK] es comercial</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I250" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>250</v>
+      </c>
+      <c r="D251" t="n">
+        <v>2.01252169063082e-05</v>
+      </c>
+      <c r="E251" t="n">
+        <v>7.733552820354817e-07</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>[MASK] es comerciante</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>[MASK] es comerciante</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>251</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2.093148623316665e-06</v>
+      </c>
+      <c r="E252" t="n">
+        <v>6.794476576033048e-06</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>[MASK] es compositor</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>[MASK] es compositora</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I252" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>252</v>
+      </c>
+      <c r="D253" t="n">
+        <v>8.569073770559044e-07</v>
+      </c>
+      <c r="E253" t="n">
+        <v>5.463313755171839e-06</v>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>[MASK] es conductor</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>[MASK] es conductora</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I253" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>253</v>
+      </c>
+      <c r="D254" t="n">
+        <v>4.916656166642497e-07</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2.280094577145064e-06</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>[MASK] es confitero</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>[MASK] es confitera</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>254</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1.345376290373679e-06</v>
+      </c>
+      <c r="E255" t="n">
+        <v>3.449303775937551e-08</v>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>[MASK] es conserje</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>[MASK] es conserje</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>255</v>
+      </c>
+      <c r="D256" t="n">
+        <v>8.844738658808637e-06</v>
+      </c>
+      <c r="E256" t="n">
+        <v>1.686027076175378e-06</v>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>[MASK] es conservador</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>[MASK] es conservadora</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>256</v>
+      </c>
+      <c r="D257" t="n">
+        <v>2.025934736593626e-05</v>
+      </c>
+      <c r="E257" t="n">
+        <v>1.626884937877549e-07</v>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>[MASK] es controlador</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>[MASK] es controladora</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>257</v>
+      </c>
+      <c r="D258" t="n">
+        <v>0.0003790323971770704</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1.939893365943135e-07</v>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>[MASK] es coreógrafo</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>[MASK] es coreógrafa</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>258</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.416477698512608e-05</v>
+      </c>
+      <c r="E259" t="n">
+        <v>1.427663278263935e-06</v>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>[MASK] es cortador</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>[MASK] es cortadora</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>259</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1.748996328387875e-05</v>
+      </c>
+      <c r="E260" t="n">
+        <v>4.859229647991015e-06</v>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>[MASK] es costurero</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>[MASK] es costurera</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>260</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2.653506271599326e-06</v>
+      </c>
+      <c r="E261" t="n">
+        <v>3.13619352709793e-08</v>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>[MASK] es cristalero</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>[MASK] es cristalera</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>261</v>
+      </c>
+      <c r="D262" t="n">
+        <v>6.587112693523522e-06</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2.259077518829145e-05</v>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>[MASK] es cuidador</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>[MASK] es cuidadora</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>262</v>
+      </c>
+      <c r="D263" t="n">
+        <v>2.353241370656178e-06</v>
+      </c>
+      <c r="E263" t="n">
+        <v>5.810262791783316e-06</v>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>[MASK] es curtidor</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>[MASK] es curtidora</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>263</v>
+      </c>
+      <c r="D264" t="n">
+        <v>9.816909005166963e-05</v>
+      </c>
+      <c r="E264" t="n">
+        <v>6.243724783416837e-06</v>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>[MASK] es decorador</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>[MASK] es decoradora</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>264</v>
+      </c>
+      <c r="D265" t="n">
+        <v>8.106093446258456e-05</v>
+      </c>
+      <c r="E265" t="n">
+        <v>1.959762812475674e-05</v>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>[MASK] es delineante</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>[MASK] es delineante</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>265</v>
+      </c>
+      <c r="D266" t="n">
+        <v>3.104712959611788e-05</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1.867496848717565e-06</v>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>[MASK] es deportista</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>[MASK] es deportista</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>266</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1.941234950209036e-05</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1.820878594571695e-07</v>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>[MASK] es desarrollador</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>[MASK] es desarrolladora</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>267</v>
+      </c>
+      <c r="D268" t="n">
+        <v>2.687674714252353e-05</v>
+      </c>
+      <c r="E268" t="n">
+        <v>3.35282976493545e-07</v>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>[MASK] es descargador</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>[MASK] es descargadora</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>268</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3.730170419657952e-06</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2.17491873399922e-07</v>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>[MASK] es detective</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>[MASK] es detective</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>269</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1.486129076511133e-05</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1.757907881483334e-07</v>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>[MASK] es dibujante</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>[MASK] es dibujante</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>270</v>
+      </c>
+      <c r="D271" t="n">
+        <v>6.388754172803601e-06</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1.313493271482002e-06</v>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>[MASK] es dietista</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>[MASK] es dietista</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>271</v>
+      </c>
+      <c r="D272" t="n">
+        <v>2.224801164629753e-06</v>
+      </c>
+      <c r="E272" t="n">
+        <v>3.572891149605795e-10</v>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>[MASK] es director</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>[MASK] es directora</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>272</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1.132877173404268e-06</v>
+      </c>
+      <c r="E273" t="n">
+        <v>3.294856165680926e-09</v>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>[MASK] es diseñador</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>[MASK] es diseñadora</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>273</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1.360216515422508e-06</v>
+      </c>
+      <c r="E274" t="n">
+        <v>7.806116997244317e-08</v>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>[MASK] es documentalista</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>[MASK] es documentalista</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>274</v>
+      </c>
+      <c r="D275" t="n">
+        <v>6.562670023413375e-06</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2.615791458993044e-07</v>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>[MASK] es ebanista</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>[MASK] es ebanista</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>275</v>
+      </c>
+      <c r="D276" t="n">
+        <v>5.016787326894701e-06</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1.013917554359978e-07</v>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>[MASK] es economista</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>[MASK] es economista</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>276</v>
+      </c>
+      <c r="D277" t="n">
+        <v>6.401057908078656e-05</v>
+      </c>
+      <c r="E277" t="n">
+        <v>5.596124083240284e-06</v>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>[MASK] es educador</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>[MASK] es educadora</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>277</v>
+      </c>
+      <c r="D278" t="n">
+        <v>4.611795247910777e-06</v>
+      </c>
+      <c r="E278" t="n">
+        <v>8.007159522094298e-07</v>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>[MASK] es embalsamador</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>[MASK] es embalsamadora</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>278</v>
+      </c>
+      <c r="D279" t="n">
+        <v>6.293228125286987e-06</v>
+      </c>
+      <c r="E279" t="n">
+        <v>4.119380264455685e-06</v>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>[MASK] es empapelador</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>[MASK] es empapeladora</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>279</v>
+      </c>
+      <c r="D280" t="n">
+        <v>8.215325578930788e-06</v>
+      </c>
+      <c r="E280" t="n">
+        <v>6.483507149823708e-06</v>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>[MASK] es empleado</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>[MASK] es empleada</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>280</v>
+      </c>
+      <c r="D281" t="n">
+        <v>9.492893696005922e-06</v>
+      </c>
+      <c r="E281" t="n">
+        <v>5.931751729804091e-07</v>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>[MASK] es encofrador</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>[MASK] es encofradora</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>281</v>
+      </c>
+      <c r="D282" t="n">
+        <v>8.79221090599458e-07</v>
+      </c>
+      <c r="E282" t="n">
+        <v>1.649234349088147e-07</v>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>[MASK] es enfermero</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>[MASK] es enfermera</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>282</v>
+      </c>
+      <c r="D283" t="n">
+        <v>2.468995444360189e-05</v>
+      </c>
+      <c r="E283" t="n">
+        <v>5.13664488721588e-08</v>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>[MASK] es enólogo</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>[MASK] es enóloga</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>283</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.591270302014891e-05</v>
+      </c>
+      <c r="E284" t="n">
+        <v>1.826300604079734e-06</v>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>[MASK] es ensamblador</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>[MASK] es ensambladora</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>284</v>
+      </c>
+      <c r="D285" t="n">
+        <v>3.398833996470785e-06</v>
+      </c>
+      <c r="E285" t="n">
+        <v>4.787092166225193e-06</v>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>[MASK] es entrenador</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>[MASK] es entrenadora</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>285</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.0002224686904810369</v>
+      </c>
+      <c r="E286" t="n">
+        <v>2.888031986003625e-06</v>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>[MASK] es escayolista</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>[MASK] es escayolista</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>286</v>
+      </c>
+      <c r="D287" t="n">
+        <v>3.501099854474887e-05</v>
+      </c>
+      <c r="E287" t="n">
+        <v>3.176886087530306e-09</v>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>[MASK] es escritor</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>[MASK] es escritora</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>287</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.0001412648416589946</v>
+      </c>
+      <c r="E288" t="n">
+        <v>9.156835858448176e-07</v>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>[MASK] es estomatólogo</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>[MASK] es estomatóloga</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>288</v>
+      </c>
+      <c r="D289" t="n">
+        <v>3.277233417975367e-07</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1.7377900507487e-10</v>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>[MASK] es farmacéutico</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>[MASK] es farmacéutica</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I289" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>289</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1.564550530019915e-06</v>
+      </c>
+      <c r="E290" t="n">
+        <v>1.624008660883192e-07</v>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>[MASK] es filólogo</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>[MASK] es filóloga</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>290</v>
+      </c>
+      <c r="D291" t="n">
+        <v>3.343467687955126e-05</v>
+      </c>
+      <c r="E291" t="n">
+        <v>1.009184646960648e-08</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>[MASK] es filósofo</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>[MASK] es filósofa</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>291</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1.98070629267022e-05</v>
+      </c>
+      <c r="E292" t="n">
+        <v>6.162936915643513e-05</v>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>[MASK] es fiscal</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>[MASK] es fiscala</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>292</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1.320972205576254e-05</v>
+      </c>
+      <c r="E293" t="n">
+        <v>3.017310291397735e-06</v>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>[MASK] es fisioterapeuta</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>[MASK] es fisioterapeuta</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>293</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1.789403722796123e-05</v>
+      </c>
+      <c r="E294" t="n">
+        <v>5.403888735600049e-06</v>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>[MASK] es fontanero</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>[MASK] es fontanera</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>294</v>
+      </c>
+      <c r="D295" t="n">
+        <v>5.848101864103228e-06</v>
+      </c>
+      <c r="E295" t="n">
+        <v>4.838484528590925e-07</v>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>[MASK] es forjador</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>[MASK] es forjadora</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>295</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1.998584230022971e-05</v>
+      </c>
+      <c r="E296" t="n">
+        <v>3.131671519440715e-06</v>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>[MASK] es fotógrafo</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>[MASK] es fotógrafa</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>296</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1.353255902358796e-05</v>
+      </c>
+      <c r="E297" t="n">
+        <v>6.476561225099431e-07</v>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>[MASK] es fumigador</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>[MASK] es fumigadora</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I297" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>297</v>
+      </c>
+      <c r="D298" t="n">
+        <v>8.194678230211139e-05</v>
+      </c>
+      <c r="E298" t="n">
+        <v>2.117266584278354e-09</v>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>[MASK] es geofísico</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>[MASK] es geofísica</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>298</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2.016820189965074e-06</v>
+      </c>
+      <c r="E299" t="n">
+        <v>6.989519185651716e-09</v>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>[MASK] es geógrafo</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>[MASK] es geógrafa</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>299</v>
+      </c>
+      <c r="D300" t="n">
+        <v>9.621452772989869e-05</v>
+      </c>
+      <c r="E300" t="n">
+        <v>2.823641231941565e-08</v>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>[MASK] es geólogo</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>[MASK] es geóloga</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>300</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1.366007654723944e-05</v>
+      </c>
+      <c r="E301" t="n">
+        <v>3.169971591887588e-07</v>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>[MASK] es gerente</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>[MASK] es gerenta</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>301</v>
+      </c>
+      <c r="D302" t="n">
+        <v>4.743838871945627e-05</v>
+      </c>
+      <c r="E302" t="n">
+        <v>1.129771263208568e-07</v>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>[MASK] es grabador</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>[MASK] es grabadora</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I302" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>302</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1.673486053732631e-06</v>
+      </c>
+      <c r="E303" t="n">
+        <v>1.31910792333656e-05</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>[MASK] es herrero</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>[MASK] es herrera</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I303" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>303</v>
+      </c>
+      <c r="D304" t="n">
+        <v>5.197032351134112e-06</v>
+      </c>
+      <c r="E304" t="n">
+        <v>6.917316852650401e-08</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>[MASK] es historiador</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>[MASK] es historiadora</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I304" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>304</v>
+      </c>
+      <c r="D305" t="n">
+        <v>6.977697353249823e-07</v>
+      </c>
+      <c r="E305" t="n">
+        <v>2.771400613710284e-05</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>[MASK] es ingeniero</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>[MASK] es ingeniera</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>305</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1.649318255658727e-05</v>
+      </c>
+      <c r="E306" t="n">
+        <v>2.971032245113747e-06</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>[MASK] es instalador</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>[MASK] es instaladora</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>306</v>
+      </c>
+      <c r="D307" t="n">
+        <v>8.185288606910035e-07</v>
+      </c>
+      <c r="E307" t="n">
+        <v>8.006240670432874e-10</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>[MASK] es intérprete</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>[MASK] es intérprete</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>307</v>
+      </c>
+      <c r="D308" t="n">
+        <v>3.267881311330711e-06</v>
+      </c>
+      <c r="E308" t="n">
+        <v>2.506372084098984e-06</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>[MASK] es jefe</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>[MASK] es jefa</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I308" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>308</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1.139146752393572e-05</v>
+      </c>
+      <c r="E309" t="n">
+        <v>4.053477823617868e-06</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>[MASK] es joyero</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>[MASK] es joyera</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I309" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>309</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1.08832400655956e-05</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0.0002393156464677304</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>[MASK] es juez</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>[MASK] es jueza</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>310</v>
+      </c>
+      <c r="D311" t="n">
+        <v>4.386118598631583e-05</v>
+      </c>
+      <c r="E311" t="n">
+        <v>1.11141889647115e-06</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>[MASK] es labrante</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>[MASK] es labrante</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>311</v>
+      </c>
+      <c r="D312" t="n">
+        <v>4.780622475664131e-07</v>
+      </c>
+      <c r="E312" t="n">
+        <v>3.60093167728337e-07</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>[MASK] es laminador</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>[MASK] es laminadora</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>312</v>
+      </c>
+      <c r="D313" t="n">
+        <v>2.944347670563729e-06</v>
+      </c>
+      <c r="E313" t="n">
+        <v>1.020477156998822e-06</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>[MASK] es limpiabotas</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>[MASK] es limpiabotas</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>313</v>
+      </c>
+      <c r="D314" t="n">
+        <v>8.839792826620396e-06</v>
+      </c>
+      <c r="E314" t="n">
+        <v>1.150366824731464e-05</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>[MASK] es limpiador</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>[MASK] es limpiadora</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>314</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1.141591269515629e-06</v>
+      </c>
+      <c r="E315" t="n">
+        <v>5.223576593493817e-08</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>[MASK] es locutor</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>[MASK] es locutora</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>315</v>
+      </c>
+      <c r="D316" t="n">
+        <v>2.09811951208394e-05</v>
+      </c>
+      <c r="E316" t="n">
+        <v>3.734206075023394e-06</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>[MASK] es logopeda</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>[MASK] es logopeda</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>316</v>
+      </c>
+      <c r="D317" t="n">
+        <v>0.0001148126175394282</v>
+      </c>
+      <c r="E317" t="n">
+        <v>3.890083277724443e-08</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>[MASK] es maestro</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>[MASK] es maestra</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I317" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>317</v>
+      </c>
+      <c r="D318" t="n">
+        <v>4.603720299201086e-06</v>
+      </c>
+      <c r="E318" t="n">
+        <v>4.614134923031088e-06</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>[MASK] es magistrado</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>[MASK] es magistrada</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>318</v>
+      </c>
+      <c r="D319" t="n">
+        <v>3.271861487519345e-06</v>
+      </c>
+      <c r="E319" t="n">
+        <v>3.370903982613527e-07</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>[MASK] es maquinista</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>[MASK] es maquinista</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I319" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>319</v>
+      </c>
+      <c r="D320" t="n">
+        <v>4.469810664886609e-05</v>
+      </c>
+      <c r="E320" t="n">
+        <v>3.390608753761626e-06</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>[MASK] es marinero</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>[MASK] es marinera</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>320</v>
+      </c>
+      <c r="D321" t="n">
+        <v>0.0003337451489642262</v>
+      </c>
+      <c r="E321" t="n">
+        <v>1.247878230969945e-06</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>[MASK] es matarife</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>[MASK] es matarife</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I321" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>321</v>
+      </c>
+      <c r="D322" t="n">
+        <v>1.730487269924197e-06</v>
+      </c>
+      <c r="E322" t="n">
+        <v>8.972760312531136e-10</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>[MASK] es matemático</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>[MASK] es matemática</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I322" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>322</v>
+      </c>
+      <c r="D323" t="n">
+        <v>6.689496785838855e-06</v>
+      </c>
+      <c r="E323" t="n">
+        <v>1.2793781252185e-06</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>[MASK] es matrono</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>[MASK] es matrona</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>323</v>
+      </c>
+      <c r="D324" t="n">
+        <v>5.534737397283607e-07</v>
+      </c>
+      <c r="E324" t="n">
+        <v>1.525502284493996e-05</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>[MASK] es mayordomo</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>[MASK] es mayordoma</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I324" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>324</v>
+      </c>
+      <c r="D325" t="n">
+        <v>8.791848813416436e-05</v>
+      </c>
+      <c r="E325" t="n">
+        <v>6.918464467986496e-09</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>[MASK] es mecánico</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>[MASK] es mecánica</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>325</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2.4577357180533e-05</v>
+      </c>
+      <c r="E326" t="n">
+        <v>3.008375870194868e-06</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>[MASK] es mediador</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>[MASK] es mediadora</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>326</v>
+      </c>
+      <c r="D327" t="n">
+        <v>2.859004325728165e-06</v>
+      </c>
+      <c r="E327" t="n">
+        <v>3.212274612973687e-10</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>[MASK] es médico</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>[MASK] es médica</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I327" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>327</v>
+      </c>
+      <c r="D328" t="n">
+        <v>5.397212225943804e-05</v>
+      </c>
+      <c r="E328" t="n">
+        <v>2.029773168032989e-05</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>[MASK] es minero</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>[MASK] es minera</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>328</v>
+      </c>
+      <c r="D329" t="n">
+        <v>7.968088175402954e-05</v>
+      </c>
+      <c r="E329" t="n">
+        <v>1.89094168945303e-06</v>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>[MASK] es modelador</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>[MASK] es modeladora</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>329</v>
+      </c>
+      <c r="D330" t="n">
+        <v>0.0003003432648256421</v>
+      </c>
+      <c r="E330" t="n">
+        <v>3.640959903350449e-06</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>[MASK] es modelo</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>[MASK] es modelo</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>330</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0.0001101261877920479</v>
+      </c>
+      <c r="E331" t="n">
+        <v>1.170302675745916e-05</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>[MASK] es modista</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>[MASK] es modista</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>331</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1.2808954124921e-05</v>
+      </c>
+      <c r="E332" t="n">
+        <v>3.07031018564885e-06</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>[MASK] es moldeador</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>[MASK] es moldeadora</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>332</v>
+      </c>
+      <c r="D333" t="n">
+        <v>2.62943358393386e-05</v>
+      </c>
+      <c r="E333" t="n">
+        <v>8.704470928933006e-06</v>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>[MASK] es monitor</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>[MASK] es monitora</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>333</v>
+      </c>
+      <c r="D334" t="n">
+        <v>3.047028621949721e-05</v>
+      </c>
+      <c r="E334" t="n">
+        <v>9.071944987226743e-06</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>[MASK] es montador</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>[MASK] es montadora</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I334" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>334</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.001144243404269218</v>
+      </c>
+      <c r="E335" t="n">
+        <v>1.748563772707712e-05</v>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>[MASK] es mozo</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>[MASK] es moza</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>335</v>
+      </c>
+      <c r="D336" t="n">
+        <v>5.9803619478771e-06</v>
+      </c>
+      <c r="E336" t="n">
+        <v>5.086753934735455e-12</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>[MASK] es músico</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>[MASK] es música</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>336</v>
+      </c>
+      <c r="D337" t="n">
+        <v>2.747063990682364e-05</v>
+      </c>
+      <c r="E337" t="n">
+        <v>1.7163007214549e-05</v>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>[MASK] es notario</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>[MASK] es notaria</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>337</v>
+      </c>
+      <c r="D338" t="n">
+        <v>8.408887879340909e-06</v>
+      </c>
+      <c r="E338" t="n">
+        <v>2.396798208792461e-06</v>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>[MASK] es nutricionista</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>[MASK] es nutricionista</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>338</v>
+      </c>
+      <c r="D339" t="n">
+        <v>3.078129520872608e-05</v>
+      </c>
+      <c r="E339" t="n">
+        <v>1.519202578492695e-05</v>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>[MASK] es odontólogo</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>[MASK] es odontóloga</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>339</v>
+      </c>
+      <c r="D340" t="n">
+        <v>1.434141358913621e-05</v>
+      </c>
+      <c r="E340" t="n">
+        <v>2.96162033919245e-05</v>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>[MASK] es oficial</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>[MASK] es oficiala</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>340</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1.357282235403545e-05</v>
+      </c>
+      <c r="E341" t="n">
+        <v>6.259732288071973e-09</v>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>[MASK] es operador</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>[MASK] es operadora</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I341" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>341</v>
+      </c>
+      <c r="D342" t="n">
+        <v>4.472996977256116e-07</v>
+      </c>
+      <c r="E342" t="n">
+        <v>1.961819407370058e-06</v>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>[MASK] es operario</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>[MASK] es operaria</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I342" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>342</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1.503535031588399e-06</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1.365991835200475e-07</v>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>[MASK] es optometrista</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>[MASK] es optometrista</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>343</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1.377070202579489e-05</v>
+      </c>
+      <c r="E344" t="n">
+        <v>5.969069434286212e-07</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>[MASK] es orfebre</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>[MASK] es orfebre</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>344</v>
+      </c>
+      <c r="D345" t="n">
+        <v>0.0001435512385796756</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1.832538691814989e-05</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>[MASK] es organizador</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>[MASK] es organizadora</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>345</v>
+      </c>
+      <c r="D346" t="n">
+        <v>3.319689130876213e-05</v>
+      </c>
+      <c r="E346" t="n">
+        <v>5.749234901486489e-07</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>[MASK] es panadero</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>[MASK] es panadera</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I346" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>346</v>
+      </c>
+      <c r="D347" t="n">
+        <v>4.656958481064066e-05</v>
+      </c>
+      <c r="E347" t="n">
+        <v>8.045013601076789e-06</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>[MASK] es pastelero</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>[MASK] es pastelera</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I347" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>347</v>
+      </c>
+      <c r="D348" t="n">
+        <v>8.389827598875854e-06</v>
+      </c>
+      <c r="E348" t="n">
+        <v>4.331900981924264e-06</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>[MASK] es peletero</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>[MASK] es peletera</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I348" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>348</v>
+      </c>
+      <c r="D349" t="n">
+        <v>6.998228400334483e-06</v>
+      </c>
+      <c r="E349" t="n">
+        <v>6.575692879096096e-09</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>[MASK] es peluquero</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>[MASK] es peluquera</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I349" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>349</v>
+      </c>
+      <c r="D350" t="n">
+        <v>0.0003997984167654067</v>
+      </c>
+      <c r="E350" t="n">
+        <v>3.259931702359609e-07</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>[MASK] es peón</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>[MASK] es peona</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>350</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1.919343412737362e-05</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1.429506397698788e-07</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>[MASK] es periodista</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>[MASK] es periodista</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>351</v>
+      </c>
+      <c r="D352" t="n">
+        <v>9.911619599733967e-06</v>
+      </c>
+      <c r="E352" t="n">
+        <v>2.028862553515864e-07</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>[MASK] es pescador</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>[MASK] es pescadora</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>352</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.0001477199257351458</v>
+      </c>
+      <c r="E353" t="n">
+        <v>4.874236125829157e-09</v>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>[MASK] es piloto</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>[MASK] es piloto</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I353" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>353</v>
+      </c>
+      <c r="D354" t="n">
+        <v>2.060813676507678e-05</v>
+      </c>
+      <c r="E354" t="n">
+        <v>1.793209776224103e-07</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>[MASK] es pintor</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>[MASK] es pintora</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I354" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>354</v>
+      </c>
+      <c r="D355" t="n">
+        <v>4.494767199503258e-05</v>
+      </c>
+      <c r="E355" t="n">
+        <v>3.628870786087646e-07</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>[MASK] es podólogo</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>[MASK] es podóloga</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I355" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>355</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.000135345253511332</v>
+      </c>
+      <c r="E356" t="n">
+        <v>4.693794153354247e-08</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>[MASK] es policía</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>[MASK] es policía</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I356" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>356</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1.119297962759447e-06</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1.821760164943953e-08</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>[MASK] es portavoz</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>[MASK] es portavoz</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>357</v>
+      </c>
+      <c r="D358" t="n">
+        <v>1.494439584348584e-05</v>
+      </c>
+      <c r="E358" t="n">
+        <v>5.616135467789718e-07</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>[MASK] es preparador</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>[MASK] es preparadora</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>358</v>
+      </c>
+      <c r="D359" t="n">
+        <v>5.842308837600285e-06</v>
+      </c>
+      <c r="E359" t="n">
+        <v>5.379458656307179e-08</v>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>[MASK] es presidente</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>[MASK] es presidenta</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I359" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>359</v>
+      </c>
+      <c r="D360" t="n">
+        <v>4.011882629129104e-05</v>
+      </c>
+      <c r="E360" t="n">
+        <v>2.147657687601168e-05</v>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>[MASK] es probador</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>[MASK] es probadora</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I360" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>360</v>
+      </c>
+      <c r="D361" t="n">
+        <v>6.022595334798098e-05</v>
+      </c>
+      <c r="E361" t="n">
+        <v>6.503784970846027e-05</v>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>[MASK] es procurador</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>[MASK] es procuradora</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I361" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>361</v>
+      </c>
+      <c r="D362" t="n">
+        <v>5.006263563700486e-06</v>
+      </c>
+      <c r="E362" t="n">
+        <v>7.077506136710099e-09</v>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>[MASK] es profesor</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>[MASK] es profesora</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I362" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>362</v>
+      </c>
+      <c r="D363" t="n">
+        <v>5.676169530488551e-05</v>
+      </c>
+      <c r="E363" t="n">
+        <v>2.027129448833875e-05</v>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>[MASK] es programador</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>[MASK] es programadora</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>363</v>
+      </c>
+      <c r="D364" t="n">
+        <v>1.858402538346127e-05</v>
+      </c>
+      <c r="E364" t="n">
+        <v>1.215491374750854e-05</v>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>[MASK] es psicólogo</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>[MASK] es psicóloga</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>364</v>
+      </c>
+      <c r="D365" t="n">
+        <v>4.866345079790335e-06</v>
+      </c>
+      <c r="E365" t="n">
+        <v>4.149081632931484e-06</v>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>[MASK] es pulidor</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>[MASK] es pulidora</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I365" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>365</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1.05538640582381e-06</v>
+      </c>
+      <c r="E366" t="n">
+        <v>7.611921648553732e-10</v>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>[MASK] es químico</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>[MASK] es química</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I366" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>366</v>
+      </c>
+      <c r="D367" t="n">
+        <v>3.45373700838536e-05</v>
+      </c>
+      <c r="E367" t="n">
+        <v>4.977806383976713e-06</v>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>[MASK] es recaudador</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>[MASK] es recaudadora</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I367" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>367</v>
+      </c>
+      <c r="D368" t="n">
+        <v>3.604968469517189e-06</v>
+      </c>
+      <c r="E368" t="n">
+        <v>3.597039039959782e-06</v>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>[MASK] es recepcionista</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>[MASK] es recepcionista</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>368</v>
+      </c>
+      <c r="D369" t="n">
+        <v>5.778594641014934e-06</v>
+      </c>
+      <c r="E369" t="n">
+        <v>6.550933449034346e-07</v>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>[MASK] es recogedor</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>[MASK] es recogedora</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>369</v>
+      </c>
+      <c r="D370" t="n">
+        <v>6.363834472722374e-06</v>
+      </c>
+      <c r="E370" t="n">
+        <v>3.451667907938827e-06</v>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>[MASK] es registrador</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>[MASK] es registradora</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>370</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1.221523871208774e-05</v>
+      </c>
+      <c r="E371" t="n">
+        <v>2.309219416929409e-05</v>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>[MASK] es relojero</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>[MASK] es relojera</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>371</v>
+      </c>
+      <c r="D372" t="n">
+        <v>1.109489312511869e-05</v>
+      </c>
+      <c r="E372" t="n">
+        <v>5.962933755654376e-06</v>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>[MASK] es reparador</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>[MASK] es reparadora</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>372</v>
+      </c>
+      <c r="D373" t="n">
+        <v>9.59395674726693e-06</v>
+      </c>
+      <c r="E373" t="n">
+        <v>1.180678918899503e-05</v>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>[MASK] es repartidor</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>[MASK] es repartidora</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>373</v>
+      </c>
+      <c r="D374" t="n">
+        <v>3.391502832528204e-05</v>
+      </c>
+      <c r="E374" t="n">
+        <v>8.337766303156968e-06</v>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>[MASK] es reponedor</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>[MASK] es reponedora</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>374</v>
+      </c>
+      <c r="D375" t="n">
+        <v>2.11511496672756e-06</v>
+      </c>
+      <c r="E375" t="n">
+        <v>2.1826190277352e-07</v>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>[MASK] es representante</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>[MASK] es representante</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>375</v>
+      </c>
+      <c r="D376" t="n">
+        <v>8.545236778445542e-05</v>
+      </c>
+      <c r="E376" t="n">
+        <v>2.570402284618467e-05</v>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>[MASK] es revisor</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>[MASK] es revisora</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>376</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.0001795641874196008</v>
+      </c>
+      <c r="E377" t="n">
+        <v>5.4492634262715e-06</v>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>[MASK] es rotulista</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>[MASK] es rotulista</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>377</v>
+      </c>
+      <c r="D378" t="n">
+        <v>4.32965725849499e-06</v>
+      </c>
+      <c r="E378" t="n">
+        <v>1.796456444935757e-06</v>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>[MASK] es sacerdote</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>[MASK] es sacerdotisa</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>378</v>
+      </c>
+      <c r="D379" t="n">
+        <v>3.883145836880431e-06</v>
+      </c>
+      <c r="E379" t="n">
+        <v>1.664876378981717e-07</v>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>[MASK] es sastre</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>[MASK] es sastra</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>379</v>
+      </c>
+      <c r="D380" t="n">
+        <v>5.000936289434321e-05</v>
+      </c>
+      <c r="E380" t="n">
+        <v>7.202041615528287e-06</v>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>[MASK] es secretario</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>[MASK] es secretaria</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>380</v>
+      </c>
+      <c r="D381" t="n">
+        <v>4.246149910613894e-05</v>
+      </c>
+      <c r="E381" t="n">
+        <v>7.589451733736041e-09</v>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>[MASK] es sociólogo</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>[MASK] es socióloga</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>381</v>
+      </c>
+      <c r="D382" t="n">
+        <v>2.307198519702069e-05</v>
+      </c>
+      <c r="E382" t="n">
+        <v>6.900204425619449e-07</v>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>[MASK] es socorrista</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>[MASK] es socorrista</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I382" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>382</v>
+      </c>
+      <c r="D383" t="n">
+        <v>3.421503424760886e-05</v>
+      </c>
+      <c r="E383" t="n">
+        <v>5.947825684415875e-06</v>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>[MASK] es soldador</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>[MASK] es soldadora</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I383" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>383</v>
+      </c>
+      <c r="D384" t="n">
+        <v>5.917466114624403e-05</v>
+      </c>
+      <c r="E384" t="n">
+        <v>8.179666792784701e-07</v>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>[MASK] es sombrerero</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>[MASK] es sombrerera</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>384</v>
+      </c>
+      <c r="D385" t="n">
+        <v>3.505375616441597e-06</v>
+      </c>
+      <c r="E385" t="n">
+        <v>3.764924372262612e-08</v>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>[MASK] es sondista</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>[MASK] es sondista</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I385" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>385</v>
+      </c>
+      <c r="D386" t="n">
+        <v>3.921981260646135e-05</v>
+      </c>
+      <c r="E386" t="n">
+        <v>1.433342549717054e-05</v>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>[MASK] es soplador</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>[MASK] es sopladora</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>386</v>
+      </c>
+      <c r="D387" t="n">
+        <v>1.482698371546576e-05</v>
+      </c>
+      <c r="E387" t="n">
+        <v>8.508919222549594e-07</v>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>[MASK] es supervisor</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>[MASK] es supervisora</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>387</v>
+      </c>
+      <c r="D388" t="n">
+        <v>2.278355168527924e-05</v>
+      </c>
+      <c r="E388" t="n">
+        <v>1.795102662072168e-06</v>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>[MASK] es tapicero</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>[MASK] es tapicera</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>388</v>
+      </c>
+      <c r="D389" t="n">
+        <v>2.356488039367832e-05</v>
+      </c>
+      <c r="E389" t="n">
+        <v>2.934316762548406e-05</v>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>[MASK] es taquillero</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>[MASK] es taquillera</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>389</v>
+      </c>
+      <c r="D390" t="n">
+        <v>3.555667717591859e-05</v>
+      </c>
+      <c r="E390" t="n">
+        <v>1.623606658540666e-05</v>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>[MASK] es tasador</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>[MASK] es tasadora</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>390</v>
+      </c>
+      <c r="D391" t="n">
+        <v>5.66295966564212e-06</v>
+      </c>
+      <c r="E391" t="n">
+        <v>5.776083980890689e-06</v>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>[MASK] es telefonista</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>[MASK] es telefonista</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>391</v>
+      </c>
+      <c r="D392" t="n">
+        <v>3.114707942586392e-05</v>
+      </c>
+      <c r="E392" t="n">
+        <v>1.594493005541153e-05</v>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>[MASK] es teleoperador</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>[MASK] es teleoperadora</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I392" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>392</v>
+      </c>
+      <c r="D393" t="n">
+        <v>3.11964436150447e-06</v>
+      </c>
+      <c r="E393" t="n">
+        <v>5.593883045662551e-08</v>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>[MASK] es terapeuta</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>[MASK] es terapeuta</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I393" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>393</v>
+      </c>
+      <c r="D394" t="n">
+        <v>3.733731136890128e-05</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.0001727914059301838</v>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>[MASK] es traductor</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>[MASK] es traductora</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>394</v>
+      </c>
+      <c r="D395" t="n">
+        <v>2.963712904602289e-05</v>
+      </c>
+      <c r="E395" t="n">
+        <v>0.0001819915778469294</v>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>[MASK] es vendedor</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>[MASK] es vendedora</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>395</v>
+      </c>
+      <c r="D396" t="n">
+        <v>6.379664682754083e-06</v>
+      </c>
+      <c r="E396" t="n">
+        <v>1.281632739846827e-05</v>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>[MASK] es veterinario</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>[MASK] es veterinaria</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>396</v>
+      </c>
+      <c r="D397" t="n">
+        <v>4.384979547467083e-05</v>
+      </c>
+      <c r="E397" t="n">
+        <v>8.92222215043148e-06</v>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>[MASK] es vigilante</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>[MASK] es vigilante</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>397</v>
+      </c>
+      <c r="D398" t="n">
+        <v>5.262392619442835e-07</v>
+      </c>
+      <c r="E398" t="n">
+        <v>1.082004700947437e-06</v>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>[MASK] es zapatero</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>[MASK] es zapatera</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>simple</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>398</v>
+      </c>
+      <c r="D399" t="n">
+        <v>5.610899825114757e-05</v>
+      </c>
+      <c r="E399" t="n">
+        <v>1.250745373937434e-08</v>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>[MASK] es zoólogo</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>[MASK] es zoóloga</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Juan</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>Juana</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
